--- a/Code/inae_PK_2022.11.22.xlsx
+++ b/Code/inae_PK_2022.11.22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DTPK-CS-22-018\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DTPK-CS-22-018\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A401F-8909-4962-89C6-3D486B32C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="90" windowWidth="25125" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="90" windowWidth="25130" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="인애(RTIME)" sheetId="2" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>inae</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{C0EFBC19-5C37-4089-A3C0-AF819D4E23F1}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,187 +294,6 @@
   </si>
   <si>
     <r>
-      <t>valsartan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dapa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> DDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>없다</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dapa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> valsartan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> DDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>없다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>met</t>
     </r>
     <r>
@@ -997,8 +815,20 @@
     <t xml:space="preserve">0.9675-1.2974 </t>
   </si>
   <si>
-    <r>
-      <t>valsartan</t>
+    <t xml:space="preserve">0.8431-1.1330 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8254-1.1063 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8446-1.1445 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>met</t>
     </r>
     <r>
       <rPr>
@@ -1074,32 +904,220 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
+      <t>없다</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
-      </rPr>
-      <t>(?)</t>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>met</t>
+      <t>valsartan</t>
     </r>
     <r>
       <rPr>
@@ -1175,26 +1193,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-      </rPr>
-      <t>(?)</t>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1276,82 +1294,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>있다(?)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8431</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1330 </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8254</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1063 </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8446</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1445 </t>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1359,8 +1321,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1479,33 +1441,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -1534,6 +1469,20 @@
     <font>
       <sz val="11"/>
       <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1774,7 +1723,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2670,25 +2619,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="12.5703125" style="19"/>
-    <col min="5" max="5" width="24.28515625" style="19" customWidth="1"/>
+    <col min="1" max="4" width="12.54296875" style="19"/>
+    <col min="5" max="5" width="24.26953125" style="19" customWidth="1"/>
     <col min="6" max="6" width="7" style="19" customWidth="1"/>
     <col min="7" max="7" width="44" style="19" customWidth="1"/>
-    <col min="8" max="11" width="12.5703125" style="19"/>
-    <col min="12" max="12" width="41.7109375" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="12.5703125" style="19"/>
+    <col min="8" max="11" width="12.54296875" style="19"/>
+    <col min="12" max="12" width="41.7265625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="12.54296875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -2727,11 +2676,11 @@
         <v>1.0303</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="23" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -2748,11 +2697,11 @@
         <v>0.97740000000000005</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -2773,11 +2722,11 @@
         <v>0.95140000000000002</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="23" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2794,11 +2743,11 @@
         <v>0.9556</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2817,11 +2766,11 @@
         <v>0.76419999999999999</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2838,11 +2787,11 @@
         <v>0.65310000000000001</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -2863,11 +2812,11 @@
         <v>1.1204000000000001</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -2883,12 +2832,12 @@
       <c r="D9" s="25">
         <v>1.0733999999999999</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>48</v>
+      <c r="E9" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -2906,8 +2855,8 @@
       <c r="D10" s="25">
         <v>0.98319999999999996</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
+      <c r="E10" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="23" t="s">
@@ -2927,12 +2876,12 @@
       <c r="D11" s="25">
         <v>1.0274000000000001</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>46</v>
+      <c r="E11" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -2960,7 +2909,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -3057,7 +3006,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="L20" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -3104,10 +3053,10 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -3264,15 +3213,15 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75">
+    <row r="38" spans="1:10" ht="13">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -3284,7 +3233,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75">
+    <row r="39" spans="1:10" ht="13">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3296,7 +3245,7 @@
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75">
+    <row r="40" spans="1:10" ht="13">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3308,7 +3257,7 @@
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75">
+    <row r="41" spans="1:10" ht="13">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3320,7 +3269,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75">
+    <row r="42" spans="1:10" ht="13">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -3332,7 +3281,7 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75">
+    <row r="43" spans="1:10" ht="13">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3344,7 +3293,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75">
+    <row r="44" spans="1:10" ht="13">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -3356,7 +3305,7 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75">
+    <row r="45" spans="1:10" ht="13">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3368,7 +3317,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75">
+    <row r="46" spans="1:10" ht="13">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -3380,7 +3329,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75">
+    <row r="47" spans="1:10" ht="13">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3392,7 +3341,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75">
+    <row r="48" spans="1:10" ht="13">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -3404,7 +3353,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" ht="12.75">
+    <row r="49" spans="1:10" ht="13">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3438,14 +3387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D377CF-4FD0-4659-9205-D677DDC3753E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3461,12 +3410,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
